--- a/Documentacao/Estudo de uso do banco.xlsx
+++ b/Documentacao/Estudo de uso do banco.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Art\projetos\SIN412-DESENVOLVIMENTO-APP\Documentacao\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <definedName name="_xlchart.v1.2" hidden="1">Planilha1!$A$2:$A$19</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Planilha1!$E$2:$E$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -119,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +218,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -285,26 +280,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -320,57 +295,9 @@
             <c:strRef>
               <c:f>Planilha1!$A$2:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Consultar todos os pacientes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Consultar todos os psicólogos</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Consultar todos os relatos</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Consultar pacientes de um psicólogo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Cadastrar relato</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cadastrar consulta</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Consultar responsáveis de um paciente</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Editar consulta</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Editar relato</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Excluir consulta</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Cadastrar paciente</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Excluir prontuário</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Cadastrar psciólogo</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Editar paciente</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Editar psicólogo</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Excluir paciente</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Excluir psicólogo</c:v>
+                  <c:v>Consultar todos os pacientes Consultar todos os psicólogos Consultar todos os relatos Consultar pacientes de um psicólogo Cadastrar relato Cadastrar consulta Consultar responsáveis de um paciente Editar consulta Editar relato Excluir consulta Cadastrar pa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -450,7 +377,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6E7B-441C-8BA4-6BAAA51F6138}"/>
             </c:ext>
@@ -465,11 +392,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="302473536"/>
-        <c:axId val="302473952"/>
+        <c:axId val="224565888"/>
+        <c:axId val="250557184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="302473536"/>
+        <c:axId val="224565888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -510,26 +437,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -567,7 +474,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302473952"/>
+        <c:crossAx val="250557184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -575,7 +482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302473952"/>
+        <c:axId val="250557184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,26 +542,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -687,7 +574,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302473536"/>
+        <c:crossAx val="224565888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1602,7 +1489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1613,20 +1500,20 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1644,7 +1531,7 @@
       </c>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1664,7 +1551,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1684,7 +1571,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1704,7 +1591,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1724,7 +1611,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +1631,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1764,7 +1651,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -1784,7 +1671,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1804,7 +1691,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1824,7 +1711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1844,7 +1731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1864,7 +1751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1884,7 +1771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1904,7 +1791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1924,7 +1811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1944,7 +1831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1964,7 +1851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1984,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2004,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -2012,7 +1899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2020,7 +1907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>

--- a/Documentacao/Estudo de uso do banco.xlsx
+++ b/Documentacao/Estudo de uso do banco.xlsx
@@ -10,10 +10,10 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Planilha1!$A$2:$A$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Planilha1!$E$2:$E$20</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Planilha1!$A$2:$A$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Planilha1!$E$2:$E$19</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Planilha1!$A$2:$A$19</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Planilha1!$E$2:$E$19</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Planilha1!$A$2:$A$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Planilha1!$E$2:$E$18</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Cadastrar relato</t>
   </si>
@@ -51,33 +51,6 @@
     <t>Editar relato</t>
   </si>
   <si>
-    <t>Cadastrar consulta</t>
-  </si>
-  <si>
-    <t>Editar consulta</t>
-  </si>
-  <si>
-    <t>Excluir consulta</t>
-  </si>
-  <si>
-    <t>Excluir prontuário</t>
-  </si>
-  <si>
-    <t>Consultar todos os pacientes</t>
-  </si>
-  <si>
-    <t>Consultar todos os psicólogos</t>
-  </si>
-  <si>
-    <t>Consultar todos os relatos</t>
-  </si>
-  <si>
-    <t>Consultar responsáveis de um paciente</t>
-  </si>
-  <si>
-    <t>Consultar pacientes de um psicólogo</t>
-  </si>
-  <si>
     <t>Usos diarios</t>
   </si>
   <si>
@@ -109,6 +82,30 @@
   </si>
   <si>
     <t>Editar responsável por um paciente</t>
+  </si>
+  <si>
+    <t>Listar todos os pacientes</t>
+  </si>
+  <si>
+    <t>Listar todos os psicólogos</t>
+  </si>
+  <si>
+    <t>Listar todos os relatos</t>
+  </si>
+  <si>
+    <t>Listar pacientes de um psicólogo</t>
+  </si>
+  <si>
+    <t>Listar responsáveis de um paciente</t>
+  </si>
+  <si>
+    <t>Cadastrar prontuário</t>
+  </si>
+  <si>
+    <t>Editar  prontuário</t>
+  </si>
+  <si>
+    <t>Excluir  prontuário</t>
   </si>
 </sst>
 </file>
@@ -293,11 +290,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$A$2:$A$18</c:f>
+              <c:f>Planilha1!$A$2:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Consultar todos os pacientes Consultar todos os psicólogos Consultar todos os relatos Consultar pacientes de um psicólogo Cadastrar relato Cadastrar consulta Consultar responsáveis de um paciente Editar consulta Editar relato Excluir consulta Cadastrar pa</c:v>
+                  <c:v>Listar todos os pacientes Listar todos os psicólogos Listar todos os relatos Listar pacientes de um psicólogo Cadastrar relato Cadastrar prontuário Listar responsáveis de um paciente Editar  prontuário Editar relato Excluir  prontuário Cadastrar paciente </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -316,10 +313,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$B$19</c:f>
+              <c:f>Planilha1!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -354,24 +351,21 @@
                   <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.17857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17857142857142858</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>2.3809523809523808E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>1.1904761904761904E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1904761904761904E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>1.1904761904761904E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -392,11 +386,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="224565888"/>
-        <c:axId val="250557184"/>
+        <c:axId val="241652096"/>
+        <c:axId val="241654016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="224565888"/>
+        <c:axId val="241652096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,7 +468,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250557184"/>
+        <c:crossAx val="241654016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -482,7 +476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250557184"/>
+        <c:axId val="241654016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,7 +568,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224565888"/>
+        <c:crossAx val="241652096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1194,7 +1188,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1218,8 +1212,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E19">
-  <autoFilter ref="A1:E19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E18">
+  <autoFilter ref="A1:E18"/>
   <sortState ref="A2:E19">
     <sortCondition descending="1" ref="B1:B19"/>
   </sortState>
@@ -1489,7 +1483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1497,15 +1491,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
@@ -1515,25 +1509,25 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3">
         <v>5</v>
@@ -1553,7 +1547,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -1573,7 +1567,7 @@
     </row>
     <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>5</v>
@@ -1593,7 +1587,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
@@ -1633,7 +1627,7 @@
     </row>
     <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <f>Tabela1[[#This Row],[Usos semanais]]/7</f>
@@ -1653,7 +1647,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -1673,7 +1667,7 @@
     </row>
     <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <f>Tabela1[[#This Row],[Usos semanais]]/7</f>
@@ -1713,7 +1707,7 @@
     </row>
     <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <f>Tabela1[[#This Row],[Usos semanais]]/7</f>
@@ -1753,47 +1747,47 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1">
         <f>Tabela1[[#This Row],[Usos semanais]]/7</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <f>Tabela1[[#This Row],[Usos semanais]]*4</f>
-        <v>8</v>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="C13" s="1">
+        <f>Tabela1[[#This Row],[Usos mensais]]/4</f>
+        <v>1.25</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
       </c>
       <c r="E13" s="1">
         <f>Tabela1[[#This Row],[Usos mensais]]*3</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <f>Tabela1[[#This Row],[Usos semanais]]/7</f>
-        <v>0.17857142857142858</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C14" s="1">
         <f>Tabela1[[#This Row],[Usos mensais]]/4</f>
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
         <f>Tabela1[[#This Row],[Usos mensais]]*3</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
         <f>Tabela1[[#This Row],[Usos semanais]]/7</f>
@@ -1811,49 +1805,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1">
         <f>Tabela1[[#This Row],[Usos semanais]]/7</f>
-        <v>7.1428571428571425E-2</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="C16" s="1">
         <f>Tabela1[[#This Row],[Usos mensais]]/4</f>
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D16" s="1">
+        <f>Tabela1[[#This Row],[Usos trimestrais]]/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
-        <f>Tabela1[[#This Row],[Usos mensais]]*3</f>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>3</v>
       </c>
       <c r="B17" s="1">
         <f>Tabela1[[#This Row],[Usos semanais]]/7</f>
-        <v>2.3809523809523808E-2</v>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="C17" s="1">
         <f>Tabela1[[#This Row],[Usos mensais]]/4</f>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D17" s="1">
         <f>Tabela1[[#This Row],[Usos trimestrais]]/3</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <f>Tabela1[[#This Row],[Usos semanais]]/7</f>
@@ -1863,7 +1857,7 @@
         <f>Tabela1[[#This Row],[Usos mensais]]/4</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <f>Tabela1[[#This Row],[Usos trimestrais]]/3</f>
         <v>0.33333333333333331</v>
       </c>
@@ -1871,45 +1865,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1">
-        <f>Tabela1[[#This Row],[Usos semanais]]/7</f>
-        <v>1.1904761904761904E-2</v>
-      </c>
-      <c r="C19" s="1">
-        <f>Tabela1[[#This Row],[Usos mensais]]/4</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D19" s="2">
-        <f>Tabela1[[#This Row],[Usos trimestrais]]/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
